--- a/Docs/Questions.xlsx
+++ b/Docs/Questions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>Table 1</t>
   </si>
@@ -41,91 +41,436 @@
     <t>Mr Yellow is hot</t>
   </si>
   <si>
+    <t>question_hot.wav</t>
+  </si>
+  <si>
+    <t>HOT1</t>
+  </si>
+  <si>
+    <t>HOT2</t>
+  </si>
+  <si>
     <t>Mr Yellow is hungry</t>
   </si>
   <si>
+    <t>question_hungry.wav</t>
+  </si>
+  <si>
+    <t>HUNGRY1</t>
+  </si>
+  <si>
+    <t>HUNGRY2</t>
+  </si>
+  <si>
+    <t>HUNGRY3</t>
+  </si>
+  <si>
+    <t>HUNGRY4</t>
+  </si>
+  <si>
     <t>It’s Mr Yellow’s birthday</t>
   </si>
   <si>
+    <t>question_birthday.wav</t>
+  </si>
+  <si>
+    <t>BIRTHDAY1</t>
+  </si>
+  <si>
+    <t>BIRTHDAY2</t>
+  </si>
+  <si>
+    <t>BIRTHDAY3</t>
+  </si>
+  <si>
     <t>Which colour do you like better?</t>
   </si>
   <si>
+    <t>question_colour.wav</t>
+  </si>
+  <si>
+    <t>COLOUR1</t>
+  </si>
+  <si>
+    <t>COLOUR2</t>
+  </si>
+  <si>
+    <t>COLOUR3</t>
+  </si>
+  <si>
     <t>Which food is best?</t>
   </si>
   <si>
+    <t>question_food.wav</t>
+  </si>
+  <si>
+    <t>FOOD1</t>
+  </si>
+  <si>
+    <t>FOOD2</t>
+  </si>
+  <si>
+    <t>FOOD3</t>
+  </si>
+  <si>
     <t>Which shell is the best?</t>
   </si>
   <si>
+    <t>question_shell.wav</t>
+  </si>
+  <si>
+    <t>SHELL1</t>
+  </si>
+  <si>
+    <t>SHELL2</t>
+  </si>
+  <si>
     <t>Star Trek or Star Wars?</t>
   </si>
   <si>
+    <t>question_trekwars.wav</t>
+  </si>
+  <si>
+    <t>TREKWARS1</t>
+  </si>
+  <si>
+    <t>TREKWARS2</t>
+  </si>
+  <si>
     <t>Do you like dogs?</t>
   </si>
   <si>
+    <t>question_dogs.wav</t>
+  </si>
+  <si>
+    <t>DOGS1</t>
+  </si>
+  <si>
+    <t>DOGS2</t>
+  </si>
+  <si>
     <t>Mr Yellow wants a pet?</t>
   </si>
   <si>
+    <t>question_pet.wav</t>
+  </si>
+  <si>
+    <t>PET1</t>
+  </si>
+  <si>
+    <t>PET2</t>
+  </si>
+  <si>
+    <t>PET3</t>
+  </si>
+  <si>
+    <t>PET4</t>
+  </si>
+  <si>
     <t>Ladders?</t>
   </si>
   <si>
+    <t>question_ladders.wav</t>
+  </si>
+  <si>
+    <t>LADDERS1</t>
+  </si>
+  <si>
+    <t>LADDERS2</t>
+  </si>
+  <si>
     <t>Where should Mr Yellow go on holiday?</t>
   </si>
   <si>
+    <t>question_holiday.wav</t>
+  </si>
+  <si>
+    <t>HOLIDAY1</t>
+  </si>
+  <si>
+    <t>HOLIDAY2</t>
+  </si>
+  <si>
+    <t>HOLIDAY3</t>
+  </si>
+  <si>
+    <t>HOLIDAY4</t>
+  </si>
+  <si>
     <t>Mr Yellow wants a drink</t>
   </si>
   <si>
+    <t>question_drink.wav</t>
+  </si>
+  <si>
+    <t>DRINK1</t>
+  </si>
+  <si>
+    <t>DRINK2</t>
+  </si>
+  <si>
     <t>Mr Yellow is sick</t>
   </si>
   <si>
+    <t>question_sick.wav</t>
+  </si>
+  <si>
+    <t>SICK1</t>
+  </si>
+  <si>
+    <t>SICK2</t>
+  </si>
+  <si>
     <t>Mr Yellow is thinking of growing his hair</t>
   </si>
   <si>
+    <t>question_hair.wav</t>
+  </si>
+  <si>
+    <t>HAIR1</t>
+  </si>
+  <si>
+    <t>HAIR2</t>
+  </si>
+  <si>
     <t>Mr Yellow is sad</t>
   </si>
   <si>
+    <t>question_sad.wav</t>
+  </si>
+  <si>
+    <t>SAD1</t>
+  </si>
+  <si>
+    <t>SAD2</t>
+  </si>
+  <si>
     <t>Mr Yellow is happy</t>
   </si>
   <si>
+    <t>question_happy.wav</t>
+  </si>
+  <si>
+    <t>HAPPY1</t>
+  </si>
+  <si>
+    <t>HAPPY2</t>
+  </si>
+  <si>
     <t>Mr Yellow needs to go to the bathroom</t>
   </si>
   <si>
+    <t>question_toilet.wav</t>
+  </si>
+  <si>
+    <t>TOILET1</t>
+  </si>
+  <si>
+    <t>TOILET2</t>
+  </si>
+  <si>
     <t>Mr Yellow is cold</t>
   </si>
   <si>
+    <t>question_cold.wav</t>
+  </si>
+  <si>
+    <t>COLD1</t>
+  </si>
+  <si>
+    <t>COLD2</t>
+  </si>
+  <si>
+    <t>COLD3</t>
+  </si>
+  <si>
     <t>Mr Yellow needs a job</t>
   </si>
   <si>
+    <t>question_job.wav</t>
+  </si>
+  <si>
+    <t>JOB1</t>
+  </si>
+  <si>
+    <t>JOB2</t>
+  </si>
+  <si>
+    <t>JOB3</t>
+  </si>
+  <si>
+    <t>JOB4</t>
+  </si>
+  <si>
     <t>Mr Yellow is drunk</t>
   </si>
   <si>
+    <t>question_drunk.wav</t>
+  </si>
+  <si>
+    <t>DRUNK1</t>
+  </si>
+  <si>
+    <t>DRUNK2</t>
+  </si>
+  <si>
+    <t>DRUNK3</t>
+  </si>
+  <si>
+    <t>DRUNK4</t>
+  </si>
+  <si>
     <t>Mr Yellow is…</t>
   </si>
   <si>
+    <t>question_yellowis.wav</t>
+  </si>
+  <si>
+    <t>YELLOWIS1</t>
+  </si>
+  <si>
+    <t>YELLOWIS2</t>
+  </si>
+  <si>
+    <t>YELLOWIS3</t>
+  </si>
+  <si>
+    <t>YELLOWIS4</t>
+  </si>
+  <si>
     <t>What should Mr Yellow watch on TV?</t>
   </si>
   <si>
+    <t>question_tv.wav</t>
+  </si>
+  <si>
+    <t>TV1</t>
+  </si>
+  <si>
+    <t>TV2</t>
+  </si>
+  <si>
+    <t>TV3</t>
+  </si>
+  <si>
+    <t>TV4</t>
+  </si>
+  <si>
     <t>Mr Yellow wants to run for president</t>
   </si>
   <si>
+    <t>question_president.wav</t>
+  </si>
+  <si>
+    <t>PRESIDENT1</t>
+  </si>
+  <si>
+    <t>PRESIDENT2</t>
+  </si>
+  <si>
     <t>Mr Yellow wants to do a sport</t>
   </si>
   <si>
+    <t>question_sport.wav</t>
+  </si>
+  <si>
+    <t>SPORT1</t>
+  </si>
+  <si>
+    <t>SPORT2</t>
+  </si>
+  <si>
+    <t>SPORT3</t>
+  </si>
+  <si>
+    <t>SPORT4</t>
+  </si>
+  <si>
     <t>Mr Yellow is tired</t>
   </si>
   <si>
+    <t>question_tired.wav</t>
+  </si>
+  <si>
+    <t>TIRED1</t>
+  </si>
+  <si>
+    <t>TIRED2</t>
+  </si>
+  <si>
     <t>Mr Yellow wants to play a game</t>
   </si>
   <si>
+    <t>question_game.wav</t>
+  </si>
+  <si>
+    <t>GAME1</t>
+  </si>
+  <si>
+    <t>GAME2</t>
+  </si>
+  <si>
+    <t>GAME3</t>
+  </si>
+  <si>
     <t>Mr Yellow wants to invite someone over</t>
   </si>
   <si>
+    <t>question_friend.wav</t>
+  </si>
+  <si>
+    <t>FRIEND1</t>
+  </si>
+  <si>
+    <t>FRIEND2</t>
+  </si>
+  <si>
+    <t>FRIEND3</t>
+  </si>
+  <si>
     <t>Mr Yellow would like to read a book</t>
   </si>
   <si>
+    <t>question_book.wav</t>
+  </si>
+  <si>
+    <t>BOOK1</t>
+  </si>
+  <si>
+    <t>BOOK2</t>
+  </si>
+  <si>
+    <t>BOOK3</t>
+  </si>
+  <si>
     <t>What is the meaning of life?</t>
   </si>
   <si>
+    <t>question_life.wav</t>
+  </si>
+  <si>
+    <t>LIFE1</t>
+  </si>
+  <si>
+    <t>LIFE2</t>
+  </si>
+  <si>
+    <t>LIFE3</t>
+  </si>
+  <si>
+    <t>LIFE4</t>
+  </si>
+  <si>
     <t>Do you like ducks?</t>
+  </si>
+  <si>
+    <t>question_duck.wav</t>
+  </si>
+  <si>
+    <t>DUCK1</t>
+  </si>
+  <si>
+    <t>DUCK2</t>
   </si>
 </sst>
 </file>
@@ -1429,36 +1774,60 @@
       <c r="B3" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>11</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
+    <row r="4" ht="32.35" customHeight="1">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s" s="8">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" ht="32.35" customHeight="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>22</v>
+      </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" ht="32.35" customHeight="1">
@@ -1466,12 +1835,20 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>27</v>
+      </c>
       <c r="G6" s="9"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
@@ -1479,12 +1856,20 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s" s="8">
+        <v>32</v>
+      </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" ht="32.35" customHeight="1">
@@ -1492,11 +1877,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s" s="8">
+        <v>36</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
@@ -1505,11 +1896,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="C9" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s" s="8">
+        <v>40</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
@@ -1518,11 +1915,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="C10" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s" s="8">
+        <v>44</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
@@ -1531,24 +1934,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="32.35" customHeight="1">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s" s="8">
+        <v>54</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
@@ -1557,24 +1976,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="C13" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s" s="8">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" ht="32.35" customHeight="1">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="C14" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s" s="8">
+        <v>64</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
@@ -1583,11 +2018,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="C15" t="s" s="8">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s" s="8">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s" s="8">
+        <v>68</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
@@ -1596,11 +2037,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="C16" t="s" s="8">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s" s="8">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s" s="8">
+        <v>72</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
@@ -1609,24 +2056,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="C17" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s" s="8">
+        <v>76</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" ht="20.35" customHeight="1">
+    <row r="18" ht="32.35" customHeight="1">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="C18" t="s" s="8">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s" s="8">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s" s="8">
+        <v>80</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
@@ -1635,11 +2094,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="C19" t="s" s="8">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s" s="8">
+        <v>84</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
@@ -1648,12 +2113,20 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="C20" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s" s="8">
+        <v>89</v>
+      </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" ht="32.35" customHeight="1">
@@ -1661,63 +2134,109 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="C21" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s" s="8">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s" s="8">
+        <v>95</v>
+      </c>
     </row>
     <row r="22" ht="20.35" customHeight="1">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s" s="8">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s" s="8">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s" s="8">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s" s="8">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s" s="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" ht="32.35" customHeight="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="C23" t="s" s="8">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s" s="8">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s" s="8">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s" s="8">
+        <v>106</v>
+      </c>
+      <c r="G23" t="s" s="8">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" ht="44.35" customHeight="1">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="C24" t="s" s="8">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s" s="8">
+        <v>110</v>
+      </c>
+      <c r="E24" t="s" s="8">
+        <v>111</v>
+      </c>
+      <c r="F24" t="s" s="8">
+        <v>112</v>
+      </c>
+      <c r="G24" t="s" s="8">
+        <v>113</v>
+      </c>
     </row>
     <row r="25" ht="32.35" customHeight="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="C25" t="s" s="8">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s" s="8">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s" s="8">
+        <v>117</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
@@ -1726,24 +2245,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="C26" t="s" s="8">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s" s="8">
+        <v>120</v>
+      </c>
+      <c r="E26" t="s" s="8">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s" s="8">
+        <v>122</v>
+      </c>
+      <c r="G26" t="s" s="8">
+        <v>123</v>
+      </c>
     </row>
     <row r="27" ht="20.35" customHeight="1">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+        <v>124</v>
+      </c>
+      <c r="C27" t="s" s="8">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s" s="8">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s" s="8">
+        <v>127</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
@@ -1752,12 +2287,20 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="C28" t="s" s="8">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s" s="8">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s" s="8">
+        <v>131</v>
+      </c>
+      <c r="F28" t="s" s="8">
+        <v>132</v>
+      </c>
       <c r="G28" s="9"/>
     </row>
     <row r="29" ht="32.35" customHeight="1">
@@ -1765,12 +2308,20 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="C29" t="s" s="8">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="E29" t="s" s="8">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s" s="8">
+        <v>137</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" ht="32.35" customHeight="1">
@@ -1778,12 +2329,20 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="C30" t="s" s="8">
+        <v>139</v>
+      </c>
+      <c r="D30" t="s" s="8">
+        <v>140</v>
+      </c>
+      <c r="E30" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="F30" t="s" s="8">
+        <v>142</v>
+      </c>
       <c r="G30" s="9"/>
     </row>
     <row r="31" ht="32.35" customHeight="1">
@@ -1791,24 +2350,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="C31" t="s" s="8">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="E31" t="s" s="8">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s" s="8">
+        <v>147</v>
+      </c>
+      <c r="G31" t="s" s="8">
+        <v>148</v>
+      </c>
     </row>
     <row r="32" ht="20.35" customHeight="1">
       <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="C32" t="s" s="8">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s" s="8">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s" s="8">
+        <v>152</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>

--- a/Docs/Questions.xlsx
+++ b/Docs/Questions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>Table 1</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>JOB3</t>
-  </si>
-  <si>
-    <t>JOB4</t>
   </si>
   <si>
     <t>Mr Yellow is drunk</t>
@@ -2148,31 +2145,29 @@
       <c r="F21" t="s" s="8">
         <v>94</v>
       </c>
-      <c r="G21" t="s" s="8">
-        <v>95</v>
-      </c>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" t="s" s="8">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s" s="8">
         <v>96</v>
       </c>
-      <c r="C22" t="s" s="8">
+      <c r="D22" t="s" s="8">
         <v>97</v>
       </c>
-      <c r="D22" t="s" s="8">
+      <c r="E22" t="s" s="8">
         <v>98</v>
       </c>
-      <c r="E22" t="s" s="8">
+      <c r="F22" t="s" s="8">
         <v>99</v>
       </c>
-      <c r="F22" t="s" s="8">
+      <c r="G22" t="s" s="8">
         <v>100</v>
-      </c>
-      <c r="G22" t="s" s="8">
-        <v>101</v>
       </c>
     </row>
     <row r="23" ht="32.35" customHeight="1">
@@ -2180,22 +2175,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="8">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s" s="8">
         <v>102</v>
       </c>
-      <c r="C23" t="s" s="8">
+      <c r="D23" t="s" s="8">
         <v>103</v>
       </c>
-      <c r="D23" t="s" s="8">
+      <c r="E23" t="s" s="8">
         <v>104</v>
       </c>
-      <c r="E23" t="s" s="8">
+      <c r="F23" t="s" s="8">
         <v>105</v>
       </c>
-      <c r="F23" t="s" s="8">
+      <c r="G23" t="s" s="8">
         <v>106</v>
-      </c>
-      <c r="G23" t="s" s="8">
-        <v>107</v>
       </c>
     </row>
     <row r="24" ht="44.35" customHeight="1">
@@ -2203,22 +2198,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="8">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s" s="8">
         <v>108</v>
       </c>
-      <c r="C24" t="s" s="8">
+      <c r="D24" t="s" s="8">
         <v>109</v>
       </c>
-      <c r="D24" t="s" s="8">
+      <c r="E24" t="s" s="8">
         <v>110</v>
       </c>
-      <c r="E24" t="s" s="8">
+      <c r="F24" t="s" s="8">
         <v>111</v>
       </c>
-      <c r="F24" t="s" s="8">
+      <c r="G24" t="s" s="8">
         <v>112</v>
-      </c>
-      <c r="G24" t="s" s="8">
-        <v>113</v>
       </c>
     </row>
     <row r="25" ht="32.35" customHeight="1">
@@ -2226,16 +2221,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="8">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s" s="8">
         <v>114</v>
       </c>
-      <c r="C25" t="s" s="8">
+      <c r="D25" t="s" s="8">
         <v>115</v>
       </c>
-      <c r="D25" t="s" s="8">
+      <c r="E25" t="s" s="8">
         <v>116</v>
-      </c>
-      <c r="E25" t="s" s="8">
-        <v>117</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2245,22 +2240,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s" s="8">
         <v>118</v>
       </c>
-      <c r="C26" t="s" s="8">
+      <c r="D26" t="s" s="8">
         <v>119</v>
       </c>
-      <c r="D26" t="s" s="8">
+      <c r="E26" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="E26" t="s" s="8">
+      <c r="F26" t="s" s="8">
         <v>121</v>
       </c>
-      <c r="F26" t="s" s="8">
+      <c r="G26" t="s" s="8">
         <v>122</v>
-      </c>
-      <c r="G26" t="s" s="8">
-        <v>123</v>
       </c>
     </row>
     <row r="27" ht="20.35" customHeight="1">
@@ -2268,16 +2263,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="8">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="C27" t="s" s="8">
+      <c r="D27" t="s" s="8">
         <v>125</v>
       </c>
-      <c r="D27" t="s" s="8">
+      <c r="E27" t="s" s="8">
         <v>126</v>
-      </c>
-      <c r="E27" t="s" s="8">
-        <v>127</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -2287,19 +2282,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="8">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s" s="8">
         <v>128</v>
       </c>
-      <c r="C28" t="s" s="8">
+      <c r="D28" t="s" s="8">
         <v>129</v>
       </c>
-      <c r="D28" t="s" s="8">
+      <c r="E28" t="s" s="8">
         <v>130</v>
       </c>
-      <c r="E28" t="s" s="8">
+      <c r="F28" t="s" s="8">
         <v>131</v>
-      </c>
-      <c r="F28" t="s" s="8">
-        <v>132</v>
       </c>
       <c r="G28" s="9"/>
     </row>
@@ -2308,19 +2303,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="8">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s" s="8">
         <v>133</v>
       </c>
-      <c r="C29" t="s" s="8">
+      <c r="D29" t="s" s="8">
         <v>134</v>
       </c>
-      <c r="D29" t="s" s="8">
+      <c r="E29" t="s" s="8">
         <v>135</v>
       </c>
-      <c r="E29" t="s" s="8">
+      <c r="F29" t="s" s="8">
         <v>136</v>
-      </c>
-      <c r="F29" t="s" s="8">
-        <v>137</v>
       </c>
       <c r="G29" s="9"/>
     </row>
@@ -2329,19 +2324,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s" s="8">
         <v>138</v>
       </c>
-      <c r="C30" t="s" s="8">
+      <c r="D30" t="s" s="8">
         <v>139</v>
       </c>
-      <c r="D30" t="s" s="8">
+      <c r="E30" t="s" s="8">
         <v>140</v>
       </c>
-      <c r="E30" t="s" s="8">
+      <c r="F30" t="s" s="8">
         <v>141</v>
-      </c>
-      <c r="F30" t="s" s="8">
-        <v>142</v>
       </c>
       <c r="G30" s="9"/>
     </row>
@@ -2350,22 +2345,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="8">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s" s="8">
         <v>143</v>
       </c>
-      <c r="C31" t="s" s="8">
+      <c r="D31" t="s" s="8">
         <v>144</v>
       </c>
-      <c r="D31" t="s" s="8">
+      <c r="E31" t="s" s="8">
         <v>145</v>
       </c>
-      <c r="E31" t="s" s="8">
+      <c r="F31" t="s" s="8">
         <v>146</v>
       </c>
-      <c r="F31" t="s" s="8">
+      <c r="G31" t="s" s="8">
         <v>147</v>
-      </c>
-      <c r="G31" t="s" s="8">
-        <v>148</v>
       </c>
     </row>
     <row r="32" ht="20.35" customHeight="1">
@@ -2373,16 +2368,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="8">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s" s="8">
         <v>149</v>
       </c>
-      <c r="C32" t="s" s="8">
+      <c r="D32" t="s" s="8">
         <v>150</v>
       </c>
-      <c r="D32" t="s" s="8">
+      <c r="E32" t="s" s="8">
         <v>151</v>
-      </c>
-      <c r="E32" t="s" s="8">
-        <v>152</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
